--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.618881</v>
+        <v>0.1307416666666667</v>
       </c>
       <c r="N2">
-        <v>1.856643</v>
+        <v>0.392225</v>
       </c>
       <c r="O2">
-        <v>0.4213320328606865</v>
+        <v>0.08437152597324375</v>
       </c>
       <c r="P2">
-        <v>0.4213320328606865</v>
+        <v>0.08437152597324377</v>
       </c>
       <c r="Q2">
-        <v>1.057287636066</v>
+        <v>0.04458600255277777</v>
       </c>
       <c r="R2">
-        <v>9.515588724594</v>
+        <v>0.4012740229749999</v>
       </c>
       <c r="S2">
-        <v>0.03946884785901777</v>
+        <v>0.001561147855198773</v>
       </c>
       <c r="T2">
-        <v>0.03946884785901777</v>
+        <v>0.001561147855198773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H3">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.8499866666666667</v>
+        <v>0.618881</v>
       </c>
       <c r="N3">
-        <v>2.54996</v>
+        <v>1.856643</v>
       </c>
       <c r="O3">
-        <v>0.5786679671393135</v>
+        <v>0.3993825051884536</v>
       </c>
       <c r="P3">
-        <v>0.5786679671393133</v>
+        <v>0.3993825051884536</v>
       </c>
       <c r="Q3">
-        <v>1.45210532152</v>
+        <v>0.2110530678503333</v>
       </c>
       <c r="R3">
-        <v>13.06894789368</v>
+        <v>1.899477610653</v>
       </c>
       <c r="S3">
-        <v>0.05420750423564517</v>
+        <v>0.007389876314155947</v>
       </c>
       <c r="T3">
-        <v>0.05420750423564517</v>
+        <v>0.007389876314155948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.842846333333334</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H4">
-        <v>11.528539</v>
+        <v>1.023071</v>
       </c>
       <c r="I4">
-        <v>0.210715743495333</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J4">
-        <v>0.2107157434953329</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.618881</v>
+        <v>0.7808913333333333</v>
       </c>
       <c r="N4">
-        <v>1.856643</v>
+        <v>2.342674</v>
       </c>
       <c r="O4">
-        <v>0.4213320328606865</v>
+        <v>0.5039326413100715</v>
       </c>
       <c r="P4">
-        <v>0.4213320328606865</v>
+        <v>0.5039326413100716</v>
       </c>
       <c r="Q4">
-        <v>2.378264581619667</v>
+        <v>0.2663024257615555</v>
       </c>
       <c r="R4">
-        <v>21.404381234577</v>
+        <v>2.396721831853999</v>
       </c>
       <c r="S4">
-        <v>0.08878129256263963</v>
+        <v>0.009324394137369955</v>
       </c>
       <c r="T4">
-        <v>0.08878129256263961</v>
+        <v>0.009324394137369957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.842846333333334</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H5">
-        <v>11.528539</v>
+        <v>1.023071</v>
       </c>
       <c r="I5">
-        <v>0.210715743495333</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J5">
-        <v>0.2107157434953329</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8499866666666667</v>
+        <v>0.01908066666666667</v>
       </c>
       <c r="N5">
-        <v>2.54996</v>
+        <v>0.057242</v>
       </c>
       <c r="O5">
-        <v>0.5786679671393135</v>
+        <v>0.01231332752823104</v>
       </c>
       <c r="P5">
-        <v>0.5786679671393133</v>
+        <v>0.01231332752823104</v>
       </c>
       <c r="Q5">
-        <v>3.266368145382223</v>
+        <v>0.006506958909111109</v>
       </c>
       <c r="R5">
-        <v>29.39731330844</v>
+        <v>0.05856263018199999</v>
       </c>
       <c r="S5">
-        <v>0.1219344509326933</v>
+        <v>0.0002278366384786492</v>
       </c>
       <c r="T5">
-        <v>0.1219344509326933</v>
+        <v>0.0002278366384786492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4572023333333333</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H6">
-        <v>1.371607</v>
+        <v>11.528539</v>
       </c>
       <c r="I6">
-        <v>0.02506988862928798</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J6">
-        <v>0.02506988862928798</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.618881</v>
+        <v>0.1307416666666667</v>
       </c>
       <c r="N6">
-        <v>1.856643</v>
+        <v>0.392225</v>
       </c>
       <c r="O6">
-        <v>0.4213320328606865</v>
+        <v>0.08437152597324375</v>
       </c>
       <c r="P6">
-        <v>0.4213320328606865</v>
+        <v>0.08437152597324377</v>
       </c>
       <c r="Q6">
-        <v>0.2829538372556666</v>
+        <v>0.502420134363889</v>
       </c>
       <c r="R6">
-        <v>2.546584535301</v>
+        <v>4.521781209275</v>
       </c>
       <c r="S6">
-        <v>0.01056274713976892</v>
+        <v>0.0175918914067796</v>
       </c>
       <c r="T6">
-        <v>0.01056274713976892</v>
+        <v>0.0175918914067796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,25 +838,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4572023333333333</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H7">
-        <v>1.371607</v>
+        <v>11.528539</v>
       </c>
       <c r="I7">
-        <v>0.02506988862928798</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J7">
-        <v>0.02506988862928798</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.8499866666666667</v>
+        <v>0.618881</v>
       </c>
       <c r="N7">
-        <v>2.54996</v>
+        <v>1.856643</v>
       </c>
       <c r="O7">
-        <v>0.5786679671393135</v>
+        <v>0.3993825051884536</v>
       </c>
       <c r="P7">
-        <v>0.5786679671393133</v>
+        <v>0.3993825051884536</v>
       </c>
       <c r="Q7">
-        <v>0.3886158873022222</v>
+        <v>2.378264581619667</v>
       </c>
       <c r="R7">
-        <v>3.49754298572</v>
+        <v>21.404381234577</v>
       </c>
       <c r="S7">
-        <v>0.01450714148951907</v>
+        <v>0.08327327946244503</v>
       </c>
       <c r="T7">
-        <v>0.01450714148951907</v>
+        <v>0.08327327946244503</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.228676</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H8">
-        <v>36.68602799999999</v>
+        <v>11.528539</v>
       </c>
       <c r="I8">
-        <v>0.670538015780716</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J8">
-        <v>0.670538015780716</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.618881</v>
+        <v>0.7808913333333333</v>
       </c>
       <c r="N8">
-        <v>1.856643</v>
+        <v>2.342674</v>
       </c>
       <c r="O8">
-        <v>0.4213320328606865</v>
+        <v>0.5039326413100715</v>
       </c>
       <c r="P8">
-        <v>0.4213320328606865</v>
+        <v>0.5039326413100716</v>
       </c>
       <c r="Q8">
-        <v>7.568095231555999</v>
+        <v>3.000845397031778</v>
       </c>
       <c r="R8">
-        <v>68.11285708400399</v>
+        <v>27.007608573286</v>
       </c>
       <c r="S8">
-        <v>0.2825191452992602</v>
+        <v>0.1050725135049678</v>
       </c>
       <c r="T8">
-        <v>0.2825191452992602</v>
+        <v>0.1050725135049678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,542 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.228676</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H9">
-        <v>36.68602799999999</v>
+        <v>11.528539</v>
       </c>
       <c r="I9">
-        <v>0.670538015780716</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J9">
-        <v>0.670538015780716</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01908066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.057242</v>
+      </c>
+      <c r="O9">
+        <v>0.01231332752823104</v>
+      </c>
+      <c r="P9">
+        <v>0.01231332752823104</v>
+      </c>
+      <c r="Q9">
+        <v>0.07332406993755555</v>
+      </c>
+      <c r="R9">
+        <v>0.659916629438</v>
+      </c>
+      <c r="S9">
+        <v>0.002567391287926261</v>
+      </c>
+      <c r="T9">
+        <v>0.002567391287926262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M9">
-        <v>0.8499866666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.54996</v>
-      </c>
-      <c r="O9">
-        <v>0.5786679671393135</v>
-      </c>
-      <c r="P9">
-        <v>0.5786679671393133</v>
-      </c>
-      <c r="Q9">
-        <v>10.39421155098666</v>
-      </c>
-      <c r="R9">
-        <v>93.54790395887998</v>
-      </c>
-      <c r="S9">
-        <v>0.3880188704814558</v>
-      </c>
-      <c r="T9">
-        <v>0.3880188704814558</v>
+      <c r="G10">
+        <v>0.2092423333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.627727</v>
+      </c>
+      <c r="I10">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="J10">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1307416666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.392225</v>
+      </c>
+      <c r="O10">
+        <v>0.08437152597324375</v>
+      </c>
+      <c r="P10">
+        <v>0.08437152597324377</v>
+      </c>
+      <c r="Q10">
+        <v>0.02735669139722222</v>
+      </c>
+      <c r="R10">
+        <v>0.246210222575</v>
+      </c>
+      <c r="S10">
+        <v>0.0009578755137232514</v>
+      </c>
+      <c r="T10">
+        <v>0.0009578755137232515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2092423333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.627727</v>
+      </c>
+      <c r="I11">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="J11">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.618881</v>
+      </c>
+      <c r="N11">
+        <v>1.856643</v>
+      </c>
+      <c r="O11">
+        <v>0.3993825051884536</v>
+      </c>
+      <c r="P11">
+        <v>0.3993825051884536</v>
+      </c>
+      <c r="Q11">
+        <v>0.1294961044956667</v>
+      </c>
+      <c r="R11">
+        <v>1.165464940461</v>
+      </c>
+      <c r="S11">
+        <v>0.004534215991906887</v>
+      </c>
+      <c r="T11">
+        <v>0.004534215991906888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2092423333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.627727</v>
+      </c>
+      <c r="I12">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="J12">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7808913333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.342674</v>
+      </c>
+      <c r="O12">
+        <v>0.5039326413100715</v>
+      </c>
+      <c r="P12">
+        <v>0.5039326413100716</v>
+      </c>
+      <c r="Q12">
+        <v>0.1633955246664444</v>
+      </c>
+      <c r="R12">
+        <v>1.470559721998</v>
+      </c>
+      <c r="S12">
+        <v>0.005721180601022637</v>
+      </c>
+      <c r="T12">
+        <v>0.005721180601022638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2092423333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.627727</v>
+      </c>
+      <c r="I13">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="J13">
+        <v>0.0113530661283407</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01908066666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.057242</v>
+      </c>
+      <c r="O13">
+        <v>0.01231332752823104</v>
+      </c>
+      <c r="P13">
+        <v>0.01231332752823104</v>
+      </c>
+      <c r="Q13">
+        <v>0.003992483214888889</v>
+      </c>
+      <c r="R13">
+        <v>0.03593234893400001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001397940216879249</v>
+      </c>
+      <c r="T13">
+        <v>0.000139794021687925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.03735666666667</v>
+      </c>
+      <c r="H14">
+        <v>42.11207</v>
+      </c>
+      <c r="I14">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="J14">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1307416666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.392225</v>
+      </c>
+      <c r="O14">
+        <v>0.08437152597324375</v>
+      </c>
+      <c r="P14">
+        <v>0.08437152597324377</v>
+      </c>
+      <c r="Q14">
+        <v>1.835267406194445</v>
+      </c>
+      <c r="R14">
+        <v>16.51740665575</v>
+      </c>
+      <c r="S14">
+        <v>0.06426061119754212</v>
+      </c>
+      <c r="T14">
+        <v>0.06426061119754213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.03735666666667</v>
+      </c>
+      <c r="H15">
+        <v>42.11207</v>
+      </c>
+      <c r="I15">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="J15">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.618881</v>
+      </c>
+      <c r="N15">
+        <v>1.856643</v>
+      </c>
+      <c r="O15">
+        <v>0.3993825051884536</v>
+      </c>
+      <c r="P15">
+        <v>0.3993825051884536</v>
+      </c>
+      <c r="Q15">
+        <v>8.687453331223335</v>
+      </c>
+      <c r="R15">
+        <v>78.18707998101</v>
+      </c>
+      <c r="S15">
+        <v>0.3041851334199457</v>
+      </c>
+      <c r="T15">
+        <v>0.3041851334199457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.03735666666667</v>
+      </c>
+      <c r="H16">
+        <v>42.11207</v>
+      </c>
+      <c r="I16">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="J16">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.7808913333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.342674</v>
+      </c>
+      <c r="O16">
+        <v>0.5039326413100715</v>
+      </c>
+      <c r="P16">
+        <v>0.5039326413100716</v>
+      </c>
+      <c r="Q16">
+        <v>10.96165016390889</v>
+      </c>
+      <c r="R16">
+        <v>98.65485147518</v>
+      </c>
+      <c r="S16">
+        <v>0.3838145530667111</v>
+      </c>
+      <c r="T16">
+        <v>0.3838145530667112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.03735666666667</v>
+      </c>
+      <c r="H17">
+        <v>42.11207</v>
+      </c>
+      <c r="I17">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="J17">
+        <v>0.7616386032643372</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.01908066666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.057242</v>
+      </c>
+      <c r="O17">
+        <v>0.01231332752823104</v>
+      </c>
+      <c r="P17">
+        <v>0.01231332752823104</v>
+      </c>
+      <c r="Q17">
+        <v>0.2678421234377778</v>
+      </c>
+      <c r="R17">
+        <v>2.41057911094</v>
+      </c>
+      <c r="S17">
+        <v>0.009378305580138201</v>
+      </c>
+      <c r="T17">
+        <v>0.009378305580138203</v>
       </c>
     </row>
   </sheetData>
